--- a/01_data-input/Ardeco/MK/COST_PERSON_MK.xlsx
+++ b/01_data-input/Ardeco/MK/COST_PERSON_MK.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\Ardeco\MK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE103860-4134-48BC-8E50-215455FF1208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>NUTS</t>
   </si>
@@ -23,51 +29,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
   </si>
   <si>
     <t>1995</t>
@@ -181,11 +142,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="100" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,11 +155,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF3860ED"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,76 +185,344 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="3">
-    <xf/>
-    <xf fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="100" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" xSplit="3" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
-    <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="12" customWidth="1"/>
-    <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="12" customWidth="1"/>
-    <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="34" max="34" width="12" customWidth="1"/>
-    <col min="35" max="35" width="12" customWidth="1"/>
-    <col min="36" max="36" width="12" customWidth="1"/>
-    <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="12" customWidth="1"/>
-    <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="40" max="40" width="12" customWidth="1"/>
-    <col min="41" max="41" width="12" customWidth="1"/>
-    <col min="42" max="42" width="12" customWidth="1"/>
-    <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="44" max="44" width="12" customWidth="1"/>
-    <col min="45" max="45" width="12" customWidth="1"/>
-    <col min="46" max="46" width="12" customWidth="1"/>
-    <col min="47" max="47" width="12" customWidth="1"/>
-    <col min="48" max="48" width="12" customWidth="1"/>
-    <col min="49" max="49" width="12" customWidth="1"/>
+    <col min="1" max="34" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,151 +625,121 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="I2" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.497</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0.404</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.406</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0.455</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0.393</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0.387</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0.424</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0.397</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0.441</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0.478</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0.465</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0.465</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>0.463</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>0.455</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>0.473</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>0.473</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0.497</v>
-      </c>
-      <c r="AO2" s="2">
-        <v>0.523</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>0.536</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>0.545</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>0.592</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>0.602</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>0.617</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>0.633</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>0.604</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>0.617</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -552,22 +751,8 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>